--- a/整理结果/1106-default模板.xlsx
+++ b/整理结果/1106-default模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MaTun\Desktop\手写参数结果\default\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MaTun\Desktop\手写参数结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50518690-25B8-4C69-98CD-46156AA0BB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98AF216-E0A8-4BDE-9499-B262C941C636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="8520" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="50">
   <si>
     <t>easy</t>
   </si>
@@ -91,6 +91,87 @@
   </si>
   <si>
     <t>------------------------------- PARTIAL MATCHING F1 -----------------------------------</t>
+  </si>
+  <si>
+    <t>### model</t>
+  </si>
+  <si>
+    <t>model_name_or_path: /home/models/Llama-3.2-3B</t>
+  </si>
+  <si>
+    <t>### 手动配置区</t>
+  </si>
+  <si>
+    <t>template: default # 重要！模板</t>
+  </si>
+  <si>
+    <t>adapter_name_or_path: /home/wma/Mercury-SQL/Models/llama3B/tp_llama3/C3_train_1_hop/checkpoint-980</t>
+  </si>
+  <si>
+    <t>output_dir: ../Results/prediction/tp_default/C3</t>
+  </si>
+  <si>
+    <t>eval_dataset: C3_eval_1_hop</t>
+  </si>
+  <si>
+    <t># 统一参数区</t>
+  </si>
+  <si>
+    <t>cutoff_len: 1024</t>
+  </si>
+  <si>
+    <t>dataset_dir: data</t>
+  </si>
+  <si>
+    <t>do_predict: true</t>
+  </si>
+  <si>
+    <t>finetuning_type: lora</t>
+  </si>
+  <si>
+    <t>flash_attn: auto</t>
+  </si>
+  <si>
+    <t>max_new_tokens: 100</t>
+  </si>
+  <si>
+    <t>max_samples: 100000</t>
+  </si>
+  <si>
+    <t>per_device_eval_batch_size: 2</t>
+  </si>
+  <si>
+    <t>predict_with_generate: true</t>
+  </si>
+  <si>
+    <t>preprocessing_num_workers: 16</t>
+  </si>
+  <si>
+    <t>quantization_method: bitsandbytes</t>
+  </si>
+  <si>
+    <t>stage: sft</t>
+  </si>
+  <si>
+    <t>top_p: 0.7</t>
+  </si>
+  <si>
+    <t>temperature: 0.95</t>
+  </si>
+  <si>
+    <t>adapter_name_or_path: /home/wma/Mercury-SQL/Models/llama3B/tp_llama3/C3_orig_train_1_hop_lr_5/checkpoint-900</t>
+  </si>
+  <si>
+    <t>output_dir: ../Results/prediction/tp_default/C3o_lr5</t>
+  </si>
+  <si>
+    <t>eval_dataset: C3_orig_eval_1_hop</t>
+  </si>
+  <si>
+    <t>adapter_name_or_path: /home/wma/Mercury-SQL/Models/llama3B/tp_llama3/C3_orig_train_1_hop_lr_7/checkpoint-980</t>
+  </si>
+  <si>
+    <t>output_dir: ../Results/prediction/tp_default/C3o_lr7</t>
   </si>
 </sst>
 </file>
@@ -169,10 +250,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,16 +558,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -503,8 +586,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -523,18 +609,21 @@
       <c r="F2" s="2">
         <v>1034</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -553,18 +642,24 @@
       <c r="F4" s="2">
         <v>0.56899999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -583,18 +678,24 @@
       <c r="F6" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -613,8 +714,11 @@
       <c r="F8" s="2">
         <v>0.91600000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -634,7 +738,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -653,8 +757,11 @@
       <c r="F10" s="2">
         <v>0.66800000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -673,8 +780,11 @@
       <c r="F11" s="2">
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -693,8 +803,11 @@
       <c r="F12" s="2">
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -713,8 +826,11 @@
       <c r="F13" s="2">
         <v>0.80600000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -733,8 +849,11 @@
       <c r="F14" s="2">
         <v>0.877</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -753,8 +872,11 @@
       <c r="F15" s="2">
         <v>0.97099999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -773,8 +895,11 @@
       <c r="F16" s="2">
         <v>0.34699999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -793,18 +918,24 @@
       <c r="F17" s="2">
         <v>0.86199999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -823,8 +954,11 @@
       <c r="F19" s="2">
         <v>0.72399999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -843,8 +977,11 @@
       <c r="F20" s="2">
         <v>0.73399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -863,8 +1000,11 @@
       <c r="F21" s="2">
         <v>0.51700000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -883,8 +1023,11 @@
       <c r="F22" s="2">
         <v>0.55200000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -903,8 +1046,11 @@
       <c r="F23" s="2">
         <v>0.627</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -923,8 +1069,11 @@
       <c r="F24" s="2">
         <v>0.61299999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -944,7 +1093,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -964,7 +1113,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -984,7 +1133,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1004,17 +1153,17 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1183,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1203,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -1229,34 +1378,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A258412-CE99-4484-8860-3D84FF6987C9}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1275,18 +1429,21 @@
       <c r="F2" s="2">
         <v>1034</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1305,18 +1462,24 @@
       <c r="F4" s="2">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1335,18 +1498,24 @@
       <c r="F6" s="2">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1534,11 @@
       <c r="F8" s="2">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1386,7 +1558,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1405,8 +1577,11 @@
       <c r="F10" s="2">
         <v>0.36799999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1425,8 +1600,11 @@
       <c r="F11" s="2">
         <v>0.39700000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1445,8 +1623,11 @@
       <c r="F12" s="2">
         <v>0.46700000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1646,11 @@
       <c r="F13" s="2">
         <v>0.42099999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1485,8 +1669,11 @@
       <c r="F14" s="2">
         <v>0.374</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1505,8 +1692,11 @@
       <c r="F15" s="2">
         <v>0.94099999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1525,8 +1715,11 @@
       <c r="F16" s="2">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1545,18 +1738,24 @@
       <c r="F17" s="2">
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1575,8 +1774,11 @@
       <c r="F19" s="2">
         <v>0.312</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1595,8 +1797,11 @@
       <c r="F20" s="2">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1615,8 +1820,11 @@
       <c r="F21" s="2">
         <v>0.23799999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1635,8 +1843,11 @@
       <c r="F22" s="2">
         <v>0.25700000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1655,8 +1866,11 @@
       <c r="F23" s="2">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -1675,8 +1889,11 @@
       <c r="F24" s="2">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1696,7 +1913,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1716,7 +1933,7 @@
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1736,7 +1953,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1756,17 +1973,17 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1786,7 +2003,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +2023,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -1981,34 +2198,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C15A372-959E-45EE-A066-99AB06E74B5C}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2027,18 +2249,21 @@
       <c r="F2" s="2">
         <v>1034</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2057,18 +2282,24 @@
       <c r="F4" s="2">
         <v>0.54400000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2087,18 +2318,24 @@
       <c r="F6" s="2">
         <v>0.50900000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2117,8 +2354,11 @@
       <c r="F8" s="2">
         <v>0.92100000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2138,7 +2378,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2157,8 +2397,11 @@
       <c r="F10" s="2">
         <v>0.69099999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2177,8 +2420,11 @@
       <c r="F11" s="2">
         <v>0.73199999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2197,8 +2443,11 @@
       <c r="F12" s="2">
         <v>0.81599999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2217,8 +2466,11 @@
       <c r="F13" s="2">
         <v>0.76200000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2237,8 +2489,11 @@
       <c r="F14" s="2">
         <v>0.90100000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -2257,8 +2512,11 @@
       <c r="F15" s="2">
         <v>0.97199999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2277,8 +2535,11 @@
       <c r="F16" s="2">
         <v>0.40899999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2297,18 +2558,24 @@
       <c r="F17" s="2">
         <v>0.876</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -2327,8 +2594,11 @@
       <c r="F19" s="2">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2347,8 +2617,11 @@
       <c r="F20" s="2">
         <v>0.68500000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2367,8 +2640,11 @@
       <c r="F21" s="2">
         <v>0.53300000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -2387,8 +2663,11 @@
       <c r="F22" s="2">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -2407,8 +2686,11 @@
       <c r="F23" s="2">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -2427,8 +2709,11 @@
       <c r="F24" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2448,7 +2733,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -2468,7 +2753,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -2488,7 +2773,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -2508,17 +2793,17 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -2538,7 +2823,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -2558,7 +2843,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
